--- a/Results/iterations.xlsx
+++ b/Results/iterations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,45 +446,50 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>T_s (°C)</t>
+          <t>T_s Prev (°C)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>T_s New (°C)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>T_c (°C)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>T_out (°C)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>h_c_sc</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>h_r_sc</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>h_c_ca</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>h_r_ca</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>U_overall</t>
         </is>
@@ -500,30 +505,35 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>32.56803409334626</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>30.39283869298214</v>
+        <v>32.57132406623926</v>
       </c>
       <c r="E2" t="n">
-        <v>7.431965906653737</v>
+        <v>30.5</v>
       </c>
       <c r="F2" t="n">
+        <v>30.39742356414612</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.428675933760736</v>
+      </c>
+      <c r="H2" t="n">
         <v>2.365886528354384</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>5.657153925932682</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>4.066524741623234</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>5.391634780173662</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>4.340845969973043</v>
       </c>
-      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -535,30 +545,35 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>33.07926871944905</v>
+        <v>32.57132406623926</v>
       </c>
       <c r="D3" t="n">
-        <v>30.70790520009282</v>
+        <v>33.08246048419874</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5112346261027838</v>
+        <v>30.5</v>
       </c>
       <c r="F3" t="n">
-        <v>1.623864167648869</v>
+        <v>30.71256737345114</v>
       </c>
       <c r="G3" t="n">
-        <v>5.45388398151384</v>
+        <v>0.5111364179594773</v>
       </c>
       <c r="H3" t="n">
+        <v>1.624696998752291</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.453972517751855</v>
+      </c>
+      <c r="J3" t="n">
         <v>4.066524741623234</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>5.391634780173662</v>
       </c>
-      <c r="J3" t="n">
-        <v>4.048309435559328</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>4.048610851216464</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -570,30 +585,35 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>33.04215161656129</v>
+        <v>33.08246048419874</v>
       </c>
       <c r="D4" t="n">
-        <v>30.68522926804235</v>
+        <v>33.04534646166731</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03711710288775549</v>
+        <v>30.5</v>
       </c>
       <c r="F4" t="n">
-        <v>1.736513464773316</v>
+        <v>30.68988423386962</v>
       </c>
       <c r="G4" t="n">
-        <v>5.467657070202294</v>
+        <v>0.03711402253143348</v>
       </c>
       <c r="H4" t="n">
+        <v>1.737128800090907</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.467743155722625</v>
+      </c>
+      <c r="J4" t="n">
         <v>4.066524741623234</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>5.391634780173662</v>
       </c>
-      <c r="J4" t="n">
-        <v>4.089355684941135</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>4.089581681686743</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -605,30 +625,35 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>33.04481630475495</v>
+        <v>33.04534646166731</v>
       </c>
       <c r="D5" t="n">
-        <v>30.68685309500077</v>
+        <v>33.04801134333719</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002664688193661391</v>
+        <v>30.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1.729290228101798</v>
+        <v>30.6915088469127</v>
       </c>
       <c r="G5" t="n">
-        <v>5.466656067936596</v>
+        <v>0.002664881669879549</v>
       </c>
       <c r="H5" t="n">
+        <v>1.729916914542366</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.466742222564275</v>
+      </c>
+      <c r="J5" t="n">
         <v>4.066524741623234</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>5.391634780173662</v>
       </c>
-      <c r="J5" t="n">
-        <v>4.086704427284658</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>4.086934330345509</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -640,30 +665,35 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>33.04462487639478</v>
+        <v>33.04801134333719</v>
       </c>
       <c r="D6" t="n">
-        <v>30.68673642313066</v>
+        <v>33.04781987176892</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0001914283601678335</v>
+        <v>30.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1.72981298657843</v>
+        <v>30.6913921007603</v>
       </c>
       <c r="G6" t="n">
-        <v>5.466727925865748</v>
+        <v>0.0001914715682644896</v>
       </c>
       <c r="H6" t="n">
+        <v>1.730438925463319</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.466814086714117</v>
+      </c>
+      <c r="J6" t="n">
         <v>4.066524741623234</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>5.391634780173662</v>
       </c>
-      <c r="J6" t="n">
-        <v>4.086896202293445</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>4.08712584987313</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -675,30 +705,35 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>33.04463862774137</v>
+        <v>33.04781987176892</v>
       </c>
       <c r="D7" t="n">
-        <v>30.68674480421623</v>
+        <v>33.04783362832754</v>
       </c>
       <c r="E7" t="n">
-        <v>1.37513465858774e-05</v>
+        <v>30.5</v>
       </c>
       <c r="F7" t="n">
-        <v>1.729775454033042</v>
+        <v>30.69140048846765</v>
       </c>
       <c r="G7" t="n">
-        <v>5.4667227636408</v>
+        <v>1.375655861579617e-05</v>
       </c>
       <c r="H7" t="n">
+        <v>1.730401440817803</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.466808923251896</v>
+      </c>
+      <c r="J7" t="n">
         <v>4.066524741623234</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>5.391634780173662</v>
       </c>
-      <c r="J7" t="n">
-        <v>4.086882432880861</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>4.087112096685763</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -710,31 +745,34 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>33.04463862774137</v>
+        <v>33.04783362832754</v>
       </c>
       <c r="D8" t="n">
-        <v>26.20450451473975</v>
+        <v>33.04783362832754</v>
       </c>
       <c r="E8" t="n">
-        <v>30.68674420215442</v>
+        <v>26.20617762397261</v>
       </c>
       <c r="F8" t="n">
-        <v>4.295495485260247</v>
+        <v>30.69139988583782</v>
       </c>
       <c r="G8" t="n">
-        <v>1.729778150313903</v>
+        <v>4.293822376027386</v>
       </c>
       <c r="H8" t="n">
-        <v>5.466723134471524</v>
+        <v>1.730404134070183</v>
       </c>
       <c r="I8" t="n">
+        <v>5.466809294228348</v>
+      </c>
+      <c r="J8" t="n">
         <v>4.066524741623234</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>5.391634780173662</v>
       </c>
-      <c r="K8" t="n">
-        <v>4.086883422051784</v>
+      <c r="L8" t="n">
+        <v>4.087113084842463</v>
       </c>
     </row>
     <row r="9">
@@ -747,30 +785,35 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>33.03133581361099</v>
+        <v>33.04783362832754</v>
       </c>
       <c r="D9" t="n">
-        <v>30.67692922575073</v>
+        <v>33.03454381811883</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01330281413037682</v>
+        <v>26.20617762397261</v>
       </c>
       <c r="F9" t="n">
-        <v>2.208312620586529</v>
+        <v>30.68159114908152</v>
       </c>
       <c r="G9" t="n">
-        <v>5.352608499404194</v>
+        <v>0.01328981020870401</v>
       </c>
       <c r="H9" t="n">
-        <v>4.068001159034315</v>
+        <v>2.208418101541191</v>
       </c>
       <c r="I9" t="n">
-        <v>5.275316526344144</v>
+        <v>5.35273788488761</v>
       </c>
       <c r="J9" t="n">
-        <v>4.179075368701169</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>4.068000561861331</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.275361398907608</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.179155977337425</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -782,30 +825,35 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>33.0322247540479</v>
+        <v>33.03454381811883</v>
       </c>
       <c r="D10" t="n">
-        <v>30.67746264000281</v>
+        <v>33.03543215090832</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0008889404369014642</v>
+        <v>26.20617762397261</v>
       </c>
       <c r="F10" t="n">
-        <v>2.207374574975747</v>
+        <v>30.68212443805691</v>
       </c>
       <c r="G10" t="n">
-        <v>5.352253122424067</v>
+        <v>0.0008883327894864124</v>
       </c>
       <c r="H10" t="n">
-        <v>4.068001159034315</v>
+        <v>2.207481154979621</v>
       </c>
       <c r="I10" t="n">
-        <v>5.275316526344144</v>
+        <v>5.352382849005704</v>
       </c>
       <c r="J10" t="n">
-        <v>4.178680198065162</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>4.068000561861331</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.275361398907608</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.178761256029255</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -817,30 +865,35 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>33.03216535376555</v>
+        <v>33.03543215090832</v>
       </c>
       <c r="D11" t="n">
-        <v>30.67742699649662</v>
+        <v>33.0353727737609</v>
       </c>
       <c r="E11" t="n">
-        <v>5.940028234618921e-05</v>
+        <v>26.20617762397261</v>
       </c>
       <c r="F11" t="n">
-        <v>2.207437308415213</v>
+        <v>30.68208879243484</v>
       </c>
       <c r="G11" t="n">
-        <v>5.352276869305469</v>
+        <v>5.937714742287881e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>4.068001159034315</v>
+        <v>2.207543833292971</v>
       </c>
       <c r="I11" t="n">
-        <v>5.275316526344144</v>
+        <v>5.352406580075954</v>
       </c>
       <c r="J11" t="n">
-        <v>4.178706621697956</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>4.068000561861331</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.275361398907608</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.178787657361346</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -852,31 +905,34 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>33.03216535376555</v>
+        <v>33.0353727737609</v>
       </c>
       <c r="D12" t="n">
-        <v>26.38126493033228</v>
+        <v>33.0353727737609</v>
       </c>
       <c r="E12" t="n">
-        <v>30.67742937825201</v>
+        <v>26.3827782945865</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1767604155925255</v>
+        <v>30.68209117503258</v>
       </c>
       <c r="G12" t="n">
-        <v>2.207433116699662</v>
+        <v>0.1766006706138867</v>
       </c>
       <c r="H12" t="n">
-        <v>5.352275282501703</v>
+        <v>2.207539644028116</v>
       </c>
       <c r="I12" t="n">
-        <v>4.068001159034315</v>
+        <v>5.352404993862048</v>
       </c>
       <c r="J12" t="n">
-        <v>5.275316526344144</v>
+        <v>4.068000561861331</v>
       </c>
       <c r="K12" t="n">
-        <v>4.178704856108491</v>
+        <v>5.275361398907608</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.178785892742749</v>
       </c>
     </row>
     <row r="13">
@@ -889,30 +945,35 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>33.03239371136529</v>
+        <v>33.0353727737609</v>
       </c>
       <c r="D13" t="n">
-        <v>30.67759494461506</v>
+        <v>33.03560093780191</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0002283575997452658</v>
+        <v>26.3827782945865</v>
       </c>
       <c r="F13" t="n">
-        <v>2.194629665796043</v>
+        <v>30.68225665547658</v>
       </c>
       <c r="G13" t="n">
-        <v>5.356928571670326</v>
+        <v>0.0002281640410117802</v>
       </c>
       <c r="H13" t="n">
-        <v>4.067938212740385</v>
+        <v>2.194750425321104</v>
       </c>
       <c r="I13" t="n">
-        <v>5.280059079020313</v>
+        <v>5.3570541434271</v>
       </c>
       <c r="J13" t="n">
-        <v>4.177148081221604</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
+        <v>4.067937675067546</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.280099699425095</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.177231455218258</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -924,30 +985,35 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>33.03237843810193</v>
+        <v>33.03560093780191</v>
       </c>
       <c r="D14" t="n">
-        <v>30.6775857779175</v>
+        <v>33.03558567300701</v>
       </c>
       <c r="E14" t="n">
-        <v>1.527326336514534e-05</v>
+        <v>26.3827782945865</v>
       </c>
       <c r="F14" t="n">
-        <v>2.194646159788714</v>
+        <v>30.68224748975082</v>
       </c>
       <c r="G14" t="n">
-        <v>5.356934674315211</v>
+        <v>1.526479490365773e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>4.067938212740385</v>
+        <v>2.194766901656863</v>
       </c>
       <c r="I14" t="n">
-        <v>5.280059079020313</v>
+        <v>5.35706024100541</v>
       </c>
       <c r="J14" t="n">
-        <v>4.177154995228842</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>4.067937675067546</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.280099699425095</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.177238362097799</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -959,31 +1025,34 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>33.03237843810193</v>
+        <v>33.03558567300701</v>
       </c>
       <c r="D15" t="n">
-        <v>26.37667080599496</v>
+        <v>33.03558567300701</v>
       </c>
       <c r="E15" t="n">
-        <v>30.67758639101493</v>
+        <v>26.37818823439179</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004594124337323535</v>
+        <v>30.68224810296311</v>
       </c>
       <c r="G15" t="n">
-        <v>2.194645056635018</v>
+        <v>0.004590060194715306</v>
       </c>
       <c r="H15" t="n">
-        <v>5.356934266151234</v>
+        <v>2.194765799360763</v>
       </c>
       <c r="I15" t="n">
-        <v>4.067938212740385</v>
+        <v>5.357059833060644</v>
       </c>
       <c r="J15" t="n">
-        <v>5.280059079020313</v>
+        <v>4.067937675067546</v>
       </c>
       <c r="K15" t="n">
-        <v>4.177154532803923</v>
+        <v>5.280099699425095</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.177237900014054</v>
       </c>
     </row>
     <row r="16">
@@ -996,30 +1065,35 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>33.03237345529524</v>
+        <v>33.03558567300701</v>
       </c>
       <c r="D16" t="n">
-        <v>30.67758196068129</v>
+        <v>33.03558069513525</v>
       </c>
       <c r="E16" t="n">
-        <v>4.982806686371077e-06</v>
+        <v>26.37818823439179</v>
       </c>
       <c r="F16" t="n">
-        <v>2.194981599255767</v>
+        <v>30.68224367495257</v>
       </c>
       <c r="G16" t="n">
-        <v>5.356813277990971</v>
+        <v>4.977871753908403e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>4.067939845085607</v>
+        <v>2.19510196974334</v>
       </c>
       <c r="I16" t="n">
-        <v>5.279935769226338</v>
+        <v>5.356938950263645</v>
       </c>
       <c r="J16" t="n">
-        <v>4.177196189272546</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
+        <v>4.067939305904179</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5.279976497878478</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.177279493714362</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1031,31 +1105,34 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>33.03237345529524</v>
+        <v>33.03558069513525</v>
       </c>
       <c r="D17" t="n">
-        <v>26.37679199047678</v>
+        <v>33.03558069513525</v>
       </c>
       <c r="E17" t="n">
-        <v>30.67758216069448</v>
+        <v>26.37830931250751</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0001211844818271857</v>
+        <v>30.68224387491598</v>
       </c>
       <c r="G17" t="n">
-        <v>2.194981239579584</v>
+        <v>0.0001210781157254814</v>
       </c>
       <c r="H17" t="n">
-        <v>5.356813144831365</v>
+        <v>2.195101610503266</v>
       </c>
       <c r="I17" t="n">
-        <v>4.067939845085607</v>
+        <v>5.356938817233607</v>
       </c>
       <c r="J17" t="n">
-        <v>5.279935769226338</v>
+        <v>4.067939305904179</v>
       </c>
       <c r="K17" t="n">
-        <v>4.177196038482864</v>
+        <v>5.279976497878478</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.177279343101563</v>
       </c>
     </row>
     <row r="18">
@@ -1068,30 +1145,35 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>33.03237394681543</v>
+        <v>33.03558069513525</v>
       </c>
       <c r="D18" t="n">
-        <v>30.67758227746961</v>
+        <v>33.03558118628716</v>
       </c>
       <c r="E18" t="n">
-        <v>4.915201898825217e-07</v>
+        <v>26.37830931250751</v>
       </c>
       <c r="F18" t="n">
-        <v>2.194972364843592</v>
+        <v>30.68224399163076</v>
       </c>
       <c r="G18" t="n">
-        <v>5.356816336243189</v>
+        <v>4.911519084771498e-07</v>
       </c>
       <c r="H18" t="n">
-        <v>4.067939802024851</v>
+        <v>2.195092745518766</v>
       </c>
       <c r="I18" t="n">
-        <v>5.27993902187744</v>
+        <v>5.356942005888276</v>
       </c>
       <c r="J18" t="n">
-        <v>4.177194940497468</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
+        <v>4.067939262882924</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.279979747696779</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.177278246762331</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1103,31 +1185,34 @@
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>33.03237394681543</v>
+        <v>33.03558118628716</v>
       </c>
       <c r="D19" t="n">
-        <v>26.37678896984307</v>
+        <v>33.03558118628716</v>
       </c>
       <c r="E19" t="n">
-        <v>30.67758225773964</v>
+        <v>26.37830629454275</v>
       </c>
       <c r="F19" t="n">
-        <v>3.020633712935705e-06</v>
+        <v>30.68224397190095</v>
       </c>
       <c r="G19" t="n">
-        <v>2.194972400323802</v>
+        <v>3.017964758100788e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>5.356816349378487</v>
+        <v>2.195092780964508</v>
       </c>
       <c r="I19" t="n">
-        <v>4.067939802024851</v>
+        <v>5.356942019013962</v>
       </c>
       <c r="J19" t="n">
-        <v>5.27993902187744</v>
+        <v>4.067939262882924</v>
       </c>
       <c r="K19" t="n">
-        <v>4.177194955372046</v>
+        <v>5.279979747696779</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4.177278261623046</v>
       </c>
     </row>
   </sheetData>
